--- a/ResultadosOffLattice.xlsx
+++ b/ResultadosOffLattice.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martin/Documents/ITBA/SimulacionDeSistemas/TP1/SimulacionDeSistemas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/segundofarina/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8AA67569-5CB4-F149-91D3-0CDBD4F5B9A2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A66705E-9A8C-944A-AA0B-F1B9A8C88DFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{E42A3642-AD6C-5C40-82C7-DC83B543A119}"/>
+    <workbookView xWindow="1160" yWindow="1060" windowWidth="27640" windowHeight="16940" xr2:uid="{E42A3642-AD6C-5C40-82C7-DC83B543A119}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -106,7 +111,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -141,13 +146,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -309,7 +315,7 @@
                   <c:v>0.1502</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1406</c:v>
+                  <c:v>0.12730000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -615,7 +621,7 @@
                   <c:v>0.92310000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.84399999999999997</c:v>
+                  <c:v>0.83299999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.74249999999999994</c:v>
@@ -819,6 +825,1400 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11603937007874016"/>
+          <c:y val="0.14856481481481484"/>
+          <c:w val="0.88396062992125979"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$36:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$W$36:$W$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.99999999998150779</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97506978364212815</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89993729272090894</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7937065168343731</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66432053168464378</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50287087543483044</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25907552419715346</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14823293343881686</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10175284615185627</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.3439369022222886E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5855170718897179E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1A56-484B-9CAD-DE1C4FF7A129}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="757045680"/>
+        <c:axId val="755925712"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="757045680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="755925712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="755925712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="757045680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$52:$A$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$W$52:$W$62</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.99999986716434053</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97440700963610305</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90075877290072559</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78725316208182949</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57649684787893885</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41599486044123057</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22755751585987133</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12329336643064832</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0108527981375665E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4059178989452955E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.876415753801791E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ED0E-E04E-8B26-C4BF03EAC207}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="760124608"/>
+        <c:axId val="760074848"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="760124608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="760074848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="760074848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="760124608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11603937007874016"/>
+          <c:y val="0.19486111111111112"/>
+          <c:w val="0.88396062992125979"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$52:$A$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$W$4:$W$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94345000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86279999999999979</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75295000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64594999999999991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.54275000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.39100000000000013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24619999999999992</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1502</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.12730000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5314-4B4D-947C-B64482E7DDB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$52:$A$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$W$20:$W$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97950000000000015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92310000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74249999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60050000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2145</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12349999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.10849999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5314-4B4D-947C-B64482E7DDB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$52:$A$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$W$36:$W$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.99999999998150779</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97506978364212815</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89993729272090894</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7937065168343731</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66432053168464378</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50287087543483044</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25907552419715346</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14823293343881686</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10175284615185627</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.3439369022222886E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5855170718897179E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5314-4B4D-947C-B64482E7DDB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$52:$A$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$W$52:$W$62</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.99999986716434053</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97440700963610305</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90075877290072559</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78725316208182949</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57649684787893885</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41599486044123057</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22755751585987133</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12329336643064832</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0108527981375665E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4059178989452955E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.876415753801791E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5314-4B4D-947C-B64482E7DDB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="758856864"/>
+        <c:axId val="758288208"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="758856864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="758288208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="758288208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="758856864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -899,6 +2299,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1578,6 +3098,1515 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2000,6 +5029,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{368DBE42-CBA1-DA4D-A499-FA41982EDF9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0D41880-B532-5A40-8352-9B4D79EF818F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>758899</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>377899</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A709EC7-53E7-9143-A36C-7A3D9788026B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2307,16 +5444,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499BACA7-3691-E442-A79A-274A7E1A154E}">
   <dimension ref="A3:AA69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q37" sqref="Q37"/>
+    <sheetView tabSelected="1" zoomScale="43" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2390,7 +5527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2455,7 +5592,7 @@
         <v>1</v>
       </c>
       <c r="V4" s="2">
-        <f>SUM(B4:U4)</f>
+        <f t="shared" ref="V4:V14" si="0">SUM(B4:U4)</f>
         <v>20</v>
       </c>
       <c r="W4" s="5">
@@ -2469,7 +5606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>0.5</v>
       </c>
@@ -2534,18 +5671,18 @@
         <v>0.97</v>
       </c>
       <c r="V5" s="2">
-        <f>SUM(B5:U5)</f>
+        <f t="shared" si="0"/>
         <v>19.600000000000001</v>
       </c>
       <c r="W5" s="5">
-        <f t="shared" ref="W5:W14" si="0">V5/20</f>
+        <f t="shared" ref="W5:W14" si="1">V5/20</f>
         <v>0.98000000000000009</v>
       </c>
       <c r="Y5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2610,18 +5747,18 @@
         <v>0.94</v>
       </c>
       <c r="V6" s="2">
-        <f>SUM(B6:U6)</f>
+        <f t="shared" si="0"/>
         <v>18.869</v>
       </c>
       <c r="W6" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.94345000000000001</v>
       </c>
       <c r="Y6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>1.5</v>
       </c>
@@ -2686,15 +5823,15 @@
         <v>0.91</v>
       </c>
       <c r="V7" s="2">
-        <f>SUM(B7:U7)</f>
+        <f t="shared" si="0"/>
         <v>17.255999999999997</v>
       </c>
       <c r="W7" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.86279999999999979</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2759,15 +5896,15 @@
         <v>0.79</v>
       </c>
       <c r="V8" s="2">
-        <f>SUM(B8:U8)</f>
+        <f t="shared" si="0"/>
         <v>15.059000000000001</v>
       </c>
       <c r="W8" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.75295000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>2.5</v>
       </c>
@@ -2832,15 +5969,15 @@
         <v>0.65</v>
       </c>
       <c r="V9" s="2">
-        <f>SUM(B9:U9)</f>
+        <f t="shared" si="0"/>
         <v>12.918999999999999</v>
       </c>
       <c r="W9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.64594999999999991</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>3</v>
       </c>
@@ -2905,15 +6042,15 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="V10" s="2">
-        <f>SUM(B10:U10)</f>
+        <f t="shared" si="0"/>
         <v>10.855</v>
       </c>
       <c r="W10" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.54275000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>3.5</v>
       </c>
@@ -2978,15 +6115,15 @@
         <v>0.5</v>
       </c>
       <c r="V11" s="2">
-        <f>SUM(B11:U11)</f>
+        <f t="shared" si="0"/>
         <v>7.8200000000000021</v>
       </c>
       <c r="W11" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.39100000000000013</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27">
       <c r="A12">
         <v>4</v>
       </c>
@@ -3051,15 +6188,15 @@
         <v>0.05</v>
       </c>
       <c r="V12" s="2">
-        <f>SUM(B12:U12)</f>
+        <f t="shared" si="0"/>
         <v>4.9239999999999986</v>
       </c>
       <c r="W12" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.24619999999999992</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>4.5</v>
       </c>
@@ -3124,15 +6261,15 @@
         <v>0.08</v>
       </c>
       <c r="V13" s="2">
-        <f>SUM(B13:U13)</f>
+        <f t="shared" si="0"/>
         <v>3.004</v>
       </c>
       <c r="W13" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1502</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>5</v>
       </c>
@@ -3155,10 +6292,10 @@
         <v>0.17</v>
       </c>
       <c r="H14" s="2">
-        <v>0.26900000000000002</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I14" s="2">
-        <v>0.25700000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="J14" s="2">
         <v>0.22</v>
@@ -3197,15 +6334,15 @@
         <v>0.21</v>
       </c>
       <c r="V14" s="2">
-        <f>SUM(B14:U14)</f>
-        <v>2.8120000000000003</v>
+        <f t="shared" si="0"/>
+        <v>2.5460000000000007</v>
       </c>
       <c r="W14" s="5">
-        <f t="shared" si="0"/>
-        <v>0.1406</v>
+        <f t="shared" si="1"/>
+        <v>0.12730000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -3228,7 +6365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27">
       <c r="A20">
         <v>0</v>
       </c>
@@ -3307,7 +6444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27">
       <c r="A21">
         <v>0.5</v>
       </c>
@@ -3372,18 +6509,18 @@
         <v>0.98</v>
       </c>
       <c r="V21" s="2">
-        <f t="shared" ref="V21:V30" si="1">SUM(B21:U21)</f>
+        <f t="shared" ref="V21:V30" si="2">SUM(B21:U21)</f>
         <v>19.590000000000003</v>
       </c>
       <c r="W21" s="5">
-        <f t="shared" ref="W21:W30" si="2">V21/20</f>
+        <f t="shared" ref="W21:W30" si="3">V21/20</f>
         <v>0.97950000000000015</v>
       </c>
       <c r="Y21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27">
       <c r="A22">
         <v>1</v>
       </c>
@@ -3448,18 +6585,18 @@
         <v>0.93</v>
       </c>
       <c r="V22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.462</v>
       </c>
       <c r="W22" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.92310000000000003</v>
       </c>
       <c r="Y22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27">
       <c r="A23">
         <v>1.5</v>
       </c>
@@ -3503,10 +6640,10 @@
         <v>0.84</v>
       </c>
       <c r="O23" s="2">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="P23" s="2">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="Q23" s="2">
         <v>0.86</v>
@@ -3515,7 +6652,7 @@
         <v>0.85</v>
       </c>
       <c r="S23" s="2">
-        <v>0.86</v>
+        <v>0.79</v>
       </c>
       <c r="T23" s="2">
         <v>0.83</v>
@@ -3524,15 +6661,15 @@
         <v>0.88</v>
       </c>
       <c r="V23" s="2">
-        <f t="shared" si="1"/>
-        <v>16.88</v>
+        <f t="shared" si="2"/>
+        <v>16.66</v>
       </c>
       <c r="W23" s="5">
-        <f t="shared" si="2"/>
-        <v>0.84399999999999997</v>
+        <f>V23/20</f>
+        <v>0.83299999999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27">
       <c r="A24">
         <v>2</v>
       </c>
@@ -3597,15 +6734,15 @@
         <v>0.8</v>
       </c>
       <c r="V24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14.85</v>
       </c>
       <c r="W24" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.74249999999999994</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27">
       <c r="A25">
         <v>2.5</v>
       </c>
@@ -3670,15 +6807,15 @@
         <v>0.74</v>
       </c>
       <c r="V25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.010000000000002</v>
       </c>
       <c r="W25" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.60050000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27">
       <c r="A26">
         <v>3</v>
       </c>
@@ -3743,15 +6880,15 @@
         <v>0.19</v>
       </c>
       <c r="V26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.98</v>
       </c>
       <c r="W26" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.44900000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27">
       <c r="A27">
         <v>3.5</v>
       </c>
@@ -3816,15 +6953,15 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="V27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.6400000000000006</v>
       </c>
       <c r="W27" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.28200000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27">
       <c r="A28">
         <v>4</v>
       </c>
@@ -3889,15 +7026,15 @@
         <v>0.42</v>
       </c>
       <c r="V28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.29</v>
       </c>
       <c r="W28" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2145</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27">
       <c r="A29">
         <v>4.5</v>
       </c>
@@ -3962,15 +7099,15 @@
         <v>0.08</v>
       </c>
       <c r="V29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4699999999999998</v>
       </c>
       <c r="W29" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.12349999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27">
       <c r="A30">
         <v>5</v>
       </c>
@@ -4035,15 +7172,15 @@
         <v>0.11</v>
       </c>
       <c r="V30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1699999999999995</v>
       </c>
       <c r="W30" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.10849999999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -4066,7 +7203,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27">
       <c r="A36">
         <v>0</v>
       </c>
@@ -4116,19 +7253,27 @@
         <v>1</v>
       </c>
       <c r="Q36" s="2">
-        <v>1</v>
-      </c>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
+        <v>0.99999999992603095</v>
+      </c>
+      <c r="R36">
+        <v>0.99999999992603095</v>
+      </c>
+      <c r="S36">
+        <v>0.99999999992603095</v>
+      </c>
+      <c r="T36">
+        <v>0.99999999992603095</v>
+      </c>
+      <c r="U36">
+        <v>0.99999999992602995</v>
+      </c>
       <c r="V36" s="2">
         <f>SUM(B36:U36)</f>
-        <v>16</v>
+        <v>19.999999999630155</v>
       </c>
       <c r="W36" s="5">
         <f>V36/20</f>
-        <v>0.8</v>
+        <v>0.99999999998150779</v>
       </c>
       <c r="Y36" t="s">
         <v>11</v>
@@ -4137,7 +7282,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27">
       <c r="A37">
         <v>0.5</v>
       </c>
@@ -4186,24 +7331,34 @@
       <c r="P37" s="2">
         <v>0.97599999999999998</v>
       </c>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
+      <c r="Q37">
+        <v>0.97907744355729498</v>
+      </c>
+      <c r="R37">
+        <v>0.94395178245078204</v>
+      </c>
+      <c r="S37">
+        <v>0.97075685382888599</v>
+      </c>
+      <c r="T37">
+        <v>0.97507384612658199</v>
+      </c>
+      <c r="U37">
+        <v>0.973535746879021</v>
+      </c>
       <c r="V37" s="2">
-        <f t="shared" ref="V37:V46" si="3">SUM(B37:U37)</f>
-        <v>14.658999999999999</v>
+        <f t="shared" ref="V37:V46" si="4">SUM(B37:U37)</f>
+        <v>19.501395672842563</v>
       </c>
       <c r="W37" s="5">
-        <f t="shared" ref="W37:W46" si="4">V37/20</f>
-        <v>0.73294999999999999</v>
+        <f t="shared" ref="W37:W46" si="5">V37/20</f>
+        <v>0.97506978364212815</v>
       </c>
       <c r="Y37" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27">
       <c r="A38">
         <v>1</v>
       </c>
@@ -4252,24 +7407,34 @@
       <c r="P38" s="2">
         <v>0.92</v>
       </c>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
+      <c r="Q38">
+        <v>0.88130304800752401</v>
+      </c>
+      <c r="R38">
+        <v>0.92150178198204702</v>
+      </c>
+      <c r="S38">
+        <v>0.93439252006412798</v>
+      </c>
+      <c r="T38">
+        <v>0.91509824297864795</v>
+      </c>
+      <c r="U38">
+        <v>0.92045026138583197</v>
+      </c>
       <c r="V38" s="2">
-        <f t="shared" si="3"/>
-        <v>13.426</v>
+        <f t="shared" si="4"/>
+        <v>17.998745854418178</v>
       </c>
       <c r="W38" s="5">
-        <f t="shared" si="4"/>
-        <v>0.67130000000000001</v>
+        <f t="shared" si="5"/>
+        <v>0.89993729272090894</v>
       </c>
       <c r="Y38" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27">
       <c r="A39">
         <v>1.5</v>
       </c>
@@ -4318,21 +7483,31 @@
       <c r="P39" s="2">
         <v>0.70399999999999996</v>
       </c>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
+      <c r="Q39">
+        <v>0.83497086356349604</v>
+      </c>
+      <c r="R39">
+        <v>0.77599183296833696</v>
+      </c>
+      <c r="S39">
+        <v>0.81060144698354697</v>
+      </c>
+      <c r="T39">
+        <v>0.77116788020147997</v>
+      </c>
+      <c r="U39">
+        <v>0.76039831297060201</v>
+      </c>
       <c r="V39" s="2">
-        <f t="shared" si="3"/>
-        <v>11.920999999999999</v>
+        <f t="shared" si="4"/>
+        <v>15.874130336687463</v>
       </c>
       <c r="W39" s="5">
-        <f t="shared" si="4"/>
-        <v>0.59604999999999997</v>
+        <f t="shared" si="5"/>
+        <v>0.7937065168343731</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27">
       <c r="A40">
         <v>2</v>
       </c>
@@ -4381,21 +7556,31 @@
       <c r="P40" s="2">
         <v>0.61199999999999999</v>
       </c>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
+      <c r="Q40">
+        <v>0.72921671858986803</v>
+      </c>
+      <c r="R40">
+        <v>0.71233542705548003</v>
+      </c>
+      <c r="S40">
+        <v>0.72091422070848898</v>
+      </c>
+      <c r="T40">
+        <v>0.61990504522817502</v>
+      </c>
+      <c r="U40">
+        <v>0.64003922211086395</v>
+      </c>
       <c r="V40" s="2">
-        <f t="shared" si="3"/>
-        <v>9.8640000000000008</v>
+        <f t="shared" si="4"/>
+        <v>13.286410633692876</v>
       </c>
       <c r="W40" s="5">
-        <f t="shared" si="4"/>
-        <v>0.49320000000000003</v>
+        <f t="shared" si="5"/>
+        <v>0.66432053168464378</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27">
       <c r="A41">
         <v>2.5</v>
       </c>
@@ -4444,21 +7629,31 @@
       <c r="P41" s="2">
         <v>0.46500000000000002</v>
       </c>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
+      <c r="Q41">
+        <v>0.61961667006988896</v>
+      </c>
+      <c r="R41">
+        <v>0.42308736638608002</v>
+      </c>
+      <c r="S41">
+        <v>0.43101373963900202</v>
+      </c>
+      <c r="T41">
+        <v>0.497253933775409</v>
+      </c>
+      <c r="U41">
+        <v>0.63344579882622998</v>
+      </c>
       <c r="V41" s="2">
-        <f t="shared" si="3"/>
-        <v>7.4529999999999994</v>
+        <f t="shared" si="4"/>
+        <v>10.057417508696609</v>
       </c>
       <c r="W41" s="5">
-        <f t="shared" si="4"/>
-        <v>0.37264999999999998</v>
+        <f t="shared" si="5"/>
+        <v>0.50287087543483044</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27">
       <c r="A42">
         <v>3</v>
       </c>
@@ -4507,21 +7702,31 @@
       <c r="P42" s="2">
         <v>0.16</v>
       </c>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
+      <c r="Q42">
+        <v>7.0109674252526094E-2</v>
+      </c>
+      <c r="R42">
+        <v>0.26947548958781897</v>
+      </c>
+      <c r="S42">
+        <v>7.5840782894017203E-2</v>
+      </c>
+      <c r="T42">
+        <v>0.201388001724671</v>
+      </c>
+      <c r="U42">
+        <v>0.29869653548403502</v>
+      </c>
       <c r="V42" s="2">
-        <f t="shared" si="3"/>
-        <v>4.266</v>
+        <f t="shared" si="4"/>
+        <v>5.181510483943069</v>
       </c>
       <c r="W42" s="5">
-        <f t="shared" si="4"/>
-        <v>0.21329999999999999</v>
+        <f t="shared" si="5"/>
+        <v>0.25907552419715346</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27">
       <c r="A43">
         <v>3.5</v>
       </c>
@@ -4570,21 +7775,31 @@
       <c r="P43" s="2">
         <v>0.14199999999999999</v>
       </c>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
+      <c r="Q43">
+        <v>0.31518055187259703</v>
+      </c>
+      <c r="R43">
+        <v>0.22146693957579</v>
+      </c>
+      <c r="S43">
+        <v>6.9768328022237494E-2</v>
+      </c>
+      <c r="T43">
+        <v>6.2101026960483398E-2</v>
+      </c>
+      <c r="U43">
+        <v>0.17314182234522901</v>
+      </c>
       <c r="V43" s="2">
-        <f t="shared" si="3"/>
-        <v>2.1229999999999998</v>
+        <f t="shared" si="4"/>
+        <v>2.964658668776337</v>
       </c>
       <c r="W43" s="5">
-        <f t="shared" si="4"/>
-        <v>0.10614999999999999</v>
+        <f t="shared" si="5"/>
+        <v>0.14823293343881686</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27">
       <c r="A44">
         <v>4</v>
       </c>
@@ -4633,21 +7848,31 @@
       <c r="P44" s="2">
         <v>0.06</v>
       </c>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
+      <c r="Q44">
+        <v>0.23111771299797201</v>
+      </c>
+      <c r="R44">
+        <v>0.12418508577995099</v>
+      </c>
+      <c r="S44">
+        <v>8.9094074211123697E-2</v>
+      </c>
+      <c r="T44">
+        <v>2.91373910993858E-2</v>
+      </c>
+      <c r="U44">
+        <v>0.127522658948693</v>
+      </c>
       <c r="V44" s="2">
-        <f t="shared" si="3"/>
-        <v>1.4340000000000002</v>
+        <f t="shared" si="4"/>
+        <v>2.0350569230371254</v>
       </c>
       <c r="W44" s="5">
-        <f t="shared" si="4"/>
-        <v>7.1700000000000014E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.10175284615185627</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27">
       <c r="A45">
         <v>4.5</v>
       </c>
@@ -4696,21 +7921,31 @@
       <c r="P45" s="2">
         <v>7.8E-2</v>
       </c>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
+      <c r="Q45">
+        <v>7.7076869963082897E-2</v>
+      </c>
+      <c r="R45">
+        <v>9.0954539207490803E-2</v>
+      </c>
+      <c r="S45">
+        <v>4.7664988295762802E-2</v>
+      </c>
+      <c r="T45">
+        <v>5.5662790328455197E-2</v>
+      </c>
+      <c r="U45">
+        <v>0.12442819264966599</v>
+      </c>
       <c r="V45" s="2">
-        <f t="shared" si="3"/>
-        <v>0.87300000000000011</v>
+        <f t="shared" si="4"/>
+        <v>1.2687873804444578</v>
       </c>
       <c r="W45" s="5">
-        <f t="shared" si="4"/>
-        <v>4.3650000000000008E-2</v>
+        <f t="shared" si="5"/>
+        <v>6.3439369022222886E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27">
       <c r="A46">
         <v>5</v>
       </c>
@@ -4759,21 +7994,31 @@
       <c r="P46" s="2">
         <v>3.1E-2</v>
       </c>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
+      <c r="Q46">
+        <v>2.4173479447217299E-2</v>
+      </c>
+      <c r="R46">
+        <v>2.5038323574571499E-2</v>
+      </c>
+      <c r="S46">
+        <v>0.11563152277587301</v>
+      </c>
+      <c r="T46">
+        <v>1.8672457971547402E-2</v>
+      </c>
+      <c r="U46">
+        <v>4.6587630608734401E-2</v>
+      </c>
       <c r="V46" s="2">
-        <f t="shared" si="3"/>
-        <v>0.68700000000000017</v>
+        <f t="shared" si="4"/>
+        <v>0.91710341437794363</v>
       </c>
       <c r="W46" s="5">
-        <f t="shared" si="4"/>
-        <v>3.4350000000000006E-2</v>
+        <f t="shared" si="5"/>
+        <v>4.5855170718897179E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -4796,7 +8041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27">
       <c r="A52">
         <v>0</v>
       </c>
@@ -4809,30 +8054,64 @@
       <c r="D52" s="2">
         <v>1</v>
       </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
-      <c r="U52" s="2"/>
+      <c r="E52">
+        <v>0.99999984372275397</v>
+      </c>
+      <c r="F52">
+        <v>0.99999984372275297</v>
+      </c>
+      <c r="G52">
+        <v>0.99999984372275297</v>
+      </c>
+      <c r="H52">
+        <v>0.99999984372275297</v>
+      </c>
+      <c r="I52">
+        <v>0.99999984372275297</v>
+      </c>
+      <c r="J52">
+        <v>0.99999984372275397</v>
+      </c>
+      <c r="K52">
+        <v>0.99999984372275397</v>
+      </c>
+      <c r="L52">
+        <v>0.99999984372275397</v>
+      </c>
+      <c r="M52">
+        <v>0.99999984372275397</v>
+      </c>
+      <c r="N52">
+        <v>0.99999984372275297</v>
+      </c>
+      <c r="O52">
+        <v>0.99999984372275297</v>
+      </c>
+      <c r="P52">
+        <v>0.99999984372275197</v>
+      </c>
+      <c r="Q52">
+        <v>0.99999984372275297</v>
+      </c>
+      <c r="R52">
+        <v>0.99999984372275397</v>
+      </c>
+      <c r="S52">
+        <v>0.99999984372275397</v>
+      </c>
+      <c r="T52">
+        <v>0.99999984372275397</v>
+      </c>
+      <c r="U52">
+        <v>0.99999984372275397</v>
+      </c>
       <c r="V52" s="2">
         <f>SUM(B52:U52)</f>
-        <v>3</v>
+        <v>19.999997343286811</v>
       </c>
       <c r="W52" s="2">
         <f>V52/20</f>
-        <v>0.15</v>
+        <v>0.99999986716434053</v>
       </c>
       <c r="Y52" t="s">
         <v>12</v>
@@ -4841,7 +8120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27">
       <c r="A53">
         <v>0.5</v>
       </c>
@@ -4854,36 +8133,70 @@
       <c r="D53" s="2">
         <v>0.97199999999999998</v>
       </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
+      <c r="E53">
+        <v>0.98392864131683999</v>
+      </c>
+      <c r="F53">
+        <v>0.978515451241592</v>
+      </c>
+      <c r="G53">
+        <v>0.95586492516011701</v>
+      </c>
+      <c r="H53">
+        <v>0.97766483909873003</v>
+      </c>
+      <c r="I53">
+        <v>0.98415918960381799</v>
+      </c>
+      <c r="J53">
+        <v>0.97435055586206198</v>
+      </c>
+      <c r="K53">
+        <v>0.98079679592539704</v>
+      </c>
+      <c r="L53">
+        <v>0.98564814455616601</v>
+      </c>
+      <c r="M53">
+        <v>0.95620424153558403</v>
+      </c>
+      <c r="N53">
+        <v>0.96714875721103399</v>
+      </c>
+      <c r="O53">
+        <v>0.98335909717821901</v>
+      </c>
+      <c r="P53">
+        <v>0.97022095052252899</v>
+      </c>
+      <c r="Q53">
+        <v>0.96703294717677202</v>
+      </c>
+      <c r="R53">
+        <v>0.97730575787092899</v>
+      </c>
+      <c r="S53">
+        <v>0.96866619123111297</v>
+      </c>
+      <c r="T53">
+        <v>0.97975607620886795</v>
+      </c>
+      <c r="U53">
+        <v>0.97551763102229305</v>
+      </c>
       <c r="V53" s="2">
-        <f t="shared" ref="V53:V62" si="5">SUM(B53:U53)</f>
-        <v>2.9219999999999997</v>
+        <f t="shared" ref="V53:V62" si="6">SUM(B53:U53)</f>
+        <v>19.48814019272206</v>
       </c>
       <c r="W53" s="2">
-        <f t="shared" ref="W53:W62" si="6">V53/20</f>
-        <v>0.14609999999999998</v>
+        <f t="shared" ref="W53:W62" si="7">V53/20</f>
+        <v>0.97440700963610305</v>
       </c>
       <c r="Y53" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27">
       <c r="A54">
         <v>1</v>
       </c>
@@ -4896,36 +8209,70 @@
       <c r="D54" s="2">
         <v>0.92</v>
       </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-      <c r="U54" s="2"/>
+      <c r="E54">
+        <v>0.927660941481256</v>
+      </c>
+      <c r="F54">
+        <v>0.91094520534626899</v>
+      </c>
+      <c r="G54">
+        <v>0.92945082985934202</v>
+      </c>
+      <c r="H54">
+        <v>0.84284886777900203</v>
+      </c>
+      <c r="I54">
+        <v>0.88144216848031198</v>
+      </c>
+      <c r="J54">
+        <v>0.88419262776891805</v>
+      </c>
+      <c r="K54">
+        <v>0.86246236818604705</v>
+      </c>
+      <c r="L54">
+        <v>0.90993661860295505</v>
+      </c>
+      <c r="M54">
+        <v>0.90831734365357097</v>
+      </c>
+      <c r="N54">
+        <v>0.92622097260613201</v>
+      </c>
+      <c r="O54">
+        <v>0.892298920499218</v>
+      </c>
+      <c r="P54">
+        <v>0.89127522780164004</v>
+      </c>
+      <c r="Q54">
+        <v>0.90178625365089304</v>
+      </c>
+      <c r="R54">
+        <v>0.920277761425916</v>
+      </c>
+      <c r="S54">
+        <v>0.90559677021325102</v>
+      </c>
+      <c r="T54">
+        <v>0.84840211041812197</v>
+      </c>
+      <c r="U54">
+        <v>0.91206047024166104</v>
+      </c>
       <c r="V54" s="2">
-        <f t="shared" si="5"/>
-        <v>2.76</v>
+        <f t="shared" si="6"/>
+        <v>18.015175458014511</v>
       </c>
       <c r="W54" s="2">
-        <f t="shared" si="6"/>
-        <v>0.13799999999999998</v>
+        <f t="shared" si="7"/>
+        <v>0.90075877290072559</v>
       </c>
       <c r="Y54" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27">
       <c r="A55">
         <v>1.5</v>
       </c>
@@ -4938,33 +8285,67 @@
       <c r="D55" s="2">
         <v>0.753</v>
       </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
-      <c r="U55" s="2"/>
+      <c r="E55">
+        <v>0.75561118403629302</v>
+      </c>
+      <c r="F55">
+        <v>0.84836396927074498</v>
+      </c>
+      <c r="G55">
+        <v>0.83914641582539495</v>
+      </c>
+      <c r="H55">
+        <v>0.82411622241006699</v>
+      </c>
+      <c r="I55">
+        <v>0.82145414180056997</v>
+      </c>
+      <c r="J55">
+        <v>0.76413688376260303</v>
+      </c>
+      <c r="K55">
+        <v>0.82297911483688901</v>
+      </c>
+      <c r="L55">
+        <v>0.71169921108017198</v>
+      </c>
+      <c r="M55">
+        <v>0.78869127271497796</v>
+      </c>
+      <c r="N55">
+        <v>0.75595927063270196</v>
+      </c>
+      <c r="O55">
+        <v>0.836062348394776</v>
+      </c>
+      <c r="P55">
+        <v>0.83850654749559095</v>
+      </c>
+      <c r="Q55">
+        <v>0.70560104432946902</v>
+      </c>
+      <c r="R55">
+        <v>0.82170221944843502</v>
+      </c>
+      <c r="S55">
+        <v>0.75712410478885905</v>
+      </c>
+      <c r="T55">
+        <v>0.68193018073429701</v>
+      </c>
+      <c r="U55">
+        <v>0.818979110074748</v>
+      </c>
       <c r="V55" s="2">
-        <f t="shared" si="5"/>
-        <v>2.3530000000000002</v>
+        <f t="shared" si="6"/>
+        <v>15.74506324163659</v>
       </c>
       <c r="W55" s="2">
-        <f t="shared" si="6"/>
-        <v>0.11765</v>
+        <f t="shared" si="7"/>
+        <v>0.78725316208182949</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27">
       <c r="A56">
         <v>2</v>
       </c>
@@ -4977,33 +8358,67 @@
       <c r="D56" s="2">
         <v>0.68400000000000005</v>
       </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="2"/>
-      <c r="S56" s="2"/>
-      <c r="T56" s="2"/>
-      <c r="U56" s="2"/>
+      <c r="E56">
+        <v>0.63216649842509898</v>
+      </c>
+      <c r="F56">
+        <v>0.59082063192934897</v>
+      </c>
+      <c r="G56">
+        <v>0.60366749928774099</v>
+      </c>
+      <c r="H56">
+        <v>0.53928248101751197</v>
+      </c>
+      <c r="I56">
+        <v>0.58003843778989095</v>
+      </c>
+      <c r="J56">
+        <v>0.71976737892585496</v>
+      </c>
+      <c r="K56">
+        <v>0.66435959125316801</v>
+      </c>
+      <c r="L56">
+        <v>0.587694228932653</v>
+      </c>
+      <c r="M56">
+        <v>0.58083300891044098</v>
+      </c>
+      <c r="N56">
+        <v>0.66369850203987202</v>
+      </c>
+      <c r="O56">
+        <v>0.40276202499100899</v>
+      </c>
+      <c r="P56">
+        <v>0.50116898131891496</v>
+      </c>
+      <c r="Q56">
+        <v>0.66862297643214896</v>
+      </c>
+      <c r="R56">
+        <v>0.59297576820357401</v>
+      </c>
+      <c r="S56">
+        <v>0.71527536560817895</v>
+      </c>
+      <c r="T56">
+        <v>0.18797860170299699</v>
+      </c>
+      <c r="U56">
+        <v>0.65482498081037099</v>
+      </c>
       <c r="V56" s="2">
-        <f t="shared" si="5"/>
-        <v>1.6440000000000001</v>
+        <f t="shared" si="6"/>
+        <v>11.529936957578776</v>
       </c>
       <c r="W56" s="2">
-        <f t="shared" si="6"/>
-        <v>8.2200000000000009E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.57649684787893885</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27">
       <c r="A57">
         <v>2.5</v>
       </c>
@@ -5016,33 +8431,67 @@
       <c r="D57" s="2">
         <v>0.41299999999999998</v>
       </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
-      <c r="R57" s="2"/>
-      <c r="S57" s="2"/>
-      <c r="T57" s="2"/>
-      <c r="U57" s="2"/>
+      <c r="E57">
+        <v>0.49711374274270997</v>
+      </c>
+      <c r="F57">
+        <v>0.44272678115009401</v>
+      </c>
+      <c r="G57">
+        <v>0.29538230005576399</v>
+      </c>
+      <c r="H57">
+        <v>0.355958461224051</v>
+      </c>
+      <c r="I57">
+        <v>0.43957468040069497</v>
+      </c>
+      <c r="J57">
+        <v>0.38541008954348999</v>
+      </c>
+      <c r="K57">
+        <v>0.51417594612087403</v>
+      </c>
+      <c r="L57">
+        <v>0.39512638263725502</v>
+      </c>
+      <c r="M57">
+        <v>0.52763231248027598</v>
+      </c>
+      <c r="N57">
+        <v>0.50037234195478497</v>
+      </c>
+      <c r="O57">
+        <v>0.56065529166064698</v>
+      </c>
+      <c r="P57">
+        <v>0.28401959946483502</v>
+      </c>
+      <c r="Q57">
+        <v>0.45678084216001502</v>
+      </c>
+      <c r="R57">
+        <v>0.180504655874617</v>
+      </c>
+      <c r="S57">
+        <v>0.56582157025395297</v>
+      </c>
+      <c r="T57">
+        <v>0.50898745133054302</v>
+      </c>
+      <c r="U57">
+        <v>0.34665475977000798</v>
+      </c>
       <c r="V57" s="2">
-        <f t="shared" si="5"/>
-        <v>1.0629999999999999</v>
+        <f t="shared" si="6"/>
+        <v>8.3198972088246119</v>
       </c>
       <c r="W57" s="2">
-        <f t="shared" si="6"/>
-        <v>5.3149999999999996E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.41599486044123057</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27">
       <c r="A58">
         <v>3</v>
       </c>
@@ -5055,33 +8504,67 @@
       <c r="D58" s="2">
         <v>0.39500000000000002</v>
       </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-      <c r="R58" s="2"/>
-      <c r="S58" s="2"/>
-      <c r="T58" s="2"/>
-      <c r="U58" s="2"/>
+      <c r="E58">
+        <v>0.36994865526728998</v>
+      </c>
+      <c r="F58">
+        <v>4.2495457811418599E-2</v>
+      </c>
+      <c r="G58">
+        <v>0.104653173109237</v>
+      </c>
+      <c r="H58">
+        <v>6.07304085356778E-2</v>
+      </c>
+      <c r="I58">
+        <v>0.161061811807266</v>
+      </c>
+      <c r="J58">
+        <v>7.1752958134213105E-2</v>
+      </c>
+      <c r="K58">
+        <v>0.27772908834967902</v>
+      </c>
+      <c r="L58">
+        <v>0.21808973975625801</v>
+      </c>
+      <c r="M58">
+        <v>0.379958067047662</v>
+      </c>
+      <c r="N58">
+        <v>0.241358921299929</v>
+      </c>
+      <c r="O58">
+        <v>0.34952409321627498</v>
+      </c>
+      <c r="P58">
+        <v>0.25929794918618698</v>
+      </c>
+      <c r="Q58">
+        <v>0.209777947940018</v>
+      </c>
+      <c r="R58">
+        <v>0.16765124563296599</v>
+      </c>
+      <c r="S58">
+        <v>0.23674200652355801</v>
+      </c>
+      <c r="T58">
+        <v>0.20899265839644399</v>
+      </c>
+      <c r="U58">
+        <v>0.296386135183347</v>
+      </c>
       <c r="V58" s="2">
-        <f t="shared" si="5"/>
-        <v>0.89500000000000002</v>
+        <f t="shared" si="6"/>
+        <v>4.5511503171974264</v>
       </c>
       <c r="W58" s="2">
-        <f t="shared" si="6"/>
-        <v>4.4749999999999998E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.22755751585987133</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27">
       <c r="A59">
         <v>3.5</v>
       </c>
@@ -5094,33 +8577,67 @@
       <c r="D59" s="2">
         <v>0.09</v>
       </c>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="2"/>
-      <c r="R59" s="2"/>
-      <c r="S59" s="2"/>
-      <c r="T59" s="2"/>
-      <c r="U59" s="2"/>
+      <c r="E59">
+        <v>0.13348308782113999</v>
+      </c>
+      <c r="F59">
+        <v>0.195212623297084</v>
+      </c>
+      <c r="G59">
+        <v>8.4222761958343995E-2</v>
+      </c>
+      <c r="H59">
+        <v>0.129534739840797</v>
+      </c>
+      <c r="I59">
+        <v>0.17164356777838499</v>
+      </c>
+      <c r="J59">
+        <v>8.2953321784880699E-2</v>
+      </c>
+      <c r="K59">
+        <v>0.103261230459456</v>
+      </c>
+      <c r="L59">
+        <v>0.19760502171009001</v>
+      </c>
+      <c r="M59">
+        <v>1.8661414334911398E-2</v>
+      </c>
+      <c r="N59">
+        <v>0.14394824686728699</v>
+      </c>
+      <c r="O59">
+        <v>0.13705773310196601</v>
+      </c>
+      <c r="P59">
+        <v>4.0370197165967001E-2</v>
+      </c>
+      <c r="Q59">
+        <v>0.12346442399685501</v>
+      </c>
+      <c r="R59">
+        <v>0.14481679180920701</v>
+      </c>
+      <c r="S59">
+        <v>0.128189237631084</v>
+      </c>
+      <c r="T59">
+        <v>0.166009351144524</v>
+      </c>
+      <c r="U59">
+        <v>9.5433577910988096E-2</v>
+      </c>
       <c r="V59" s="2">
-        <f t="shared" si="5"/>
-        <v>0.37</v>
+        <f t="shared" si="6"/>
+        <v>2.4658673286129664</v>
       </c>
       <c r="W59" s="2">
-        <f t="shared" si="6"/>
-        <v>1.8499999999999999E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.12329336643064832</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27">
       <c r="A60">
         <v>4</v>
       </c>
@@ -5133,33 +8650,67 @@
       <c r="D60" s="2">
         <v>0.104</v>
       </c>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2"/>
-      <c r="R60" s="2"/>
-      <c r="S60" s="2"/>
-      <c r="T60" s="2"/>
-      <c r="U60" s="2"/>
+      <c r="E60">
+        <v>0.15275153186155199</v>
+      </c>
+      <c r="F60">
+        <v>0.100987771370896</v>
+      </c>
+      <c r="G60">
+        <v>6.1637458556647602E-2</v>
+      </c>
+      <c r="H60">
+        <v>6.8412084758853898E-3</v>
+      </c>
+      <c r="I60">
+        <v>6.4551856424279797E-2</v>
+      </c>
+      <c r="J60">
+        <v>1.7330133911223199E-2</v>
+      </c>
+      <c r="K60">
+        <v>7.43849012919163E-2</v>
+      </c>
+      <c r="L60">
+        <v>5.3232443932307097E-2</v>
+      </c>
+      <c r="M60">
+        <v>4.9246484593089598E-2</v>
+      </c>
+      <c r="N60">
+        <v>4.1115843641059802E-2</v>
+      </c>
+      <c r="O60">
+        <v>4.6018829070964801E-2</v>
+      </c>
+      <c r="P60">
+        <v>0.10419260805438101</v>
+      </c>
+      <c r="Q60">
+        <v>5.3161021136375698E-2</v>
+      </c>
+      <c r="R60">
+        <v>5.7085604960962502E-2</v>
+      </c>
+      <c r="S60">
+        <v>4.5026510843876801E-2</v>
+      </c>
+      <c r="T60">
+        <v>0.101114751347456</v>
+      </c>
+      <c r="U60">
+        <v>0.14249160015463999</v>
+      </c>
       <c r="V60" s="2">
-        <f t="shared" si="5"/>
-        <v>0.23099999999999998</v>
+        <f t="shared" si="6"/>
+        <v>1.4021705596275134</v>
       </c>
       <c r="W60" s="2">
-        <f t="shared" si="6"/>
-        <v>1.155E-2</v>
+        <f t="shared" si="7"/>
+        <v>7.0108527981375665E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27">
       <c r="A61">
         <v>4.5</v>
       </c>
@@ -5172,33 +8723,67 @@
       <c r="D61" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" s="2"/>
-      <c r="Q61" s="2"/>
-      <c r="R61" s="2"/>
-      <c r="S61" s="2"/>
-      <c r="T61" s="2"/>
-      <c r="U61" s="2"/>
+      <c r="E61">
+        <v>3.3770015742885302E-2</v>
+      </c>
+      <c r="F61">
+        <v>8.1987282555457605E-3</v>
+      </c>
+      <c r="G61">
+        <v>3.5716962570125403E-2</v>
+      </c>
+      <c r="H61">
+        <v>6.2429594207821598E-2</v>
+      </c>
+      <c r="I61">
+        <v>2.1514244149016499E-2</v>
+      </c>
+      <c r="J61">
+        <v>8.5342542157856097E-2</v>
+      </c>
+      <c r="K61">
+        <v>1.0312504926716801E-2</v>
+      </c>
+      <c r="L61">
+        <v>0.11089334342290801</v>
+      </c>
+      <c r="M61">
+        <v>8.2500967073460996E-2</v>
+      </c>
+      <c r="N61">
+        <v>2.2858361956440601E-2</v>
+      </c>
+      <c r="O61">
+        <v>5.2630139612136903E-2</v>
+      </c>
+      <c r="P61">
+        <v>5.1087340665414899E-2</v>
+      </c>
+      <c r="Q61">
+        <v>3.6494317513463999E-2</v>
+      </c>
+      <c r="R61">
+        <v>7.9064774090969694E-2</v>
+      </c>
+      <c r="S61">
+        <v>5.8500840280337099E-2</v>
+      </c>
+      <c r="T61">
+        <v>1.6776565756995401E-2</v>
+      </c>
+      <c r="U61" s="6">
+        <v>9.2337406963964502E-5</v>
+      </c>
       <c r="V61" s="2">
-        <f t="shared" si="5"/>
-        <v>0.113</v>
+        <f t="shared" si="6"/>
+        <v>0.88118357978905903</v>
       </c>
       <c r="W61" s="2">
-        <f t="shared" si="6"/>
-        <v>5.6500000000000005E-3</v>
+        <f t="shared" si="7"/>
+        <v>4.4059178989452955E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27">
       <c r="A62">
         <v>5</v>
       </c>
@@ -5211,36 +8796,70 @@
       <c r="D62" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="P62" s="2"/>
-      <c r="Q62" s="2"/>
-      <c r="R62" s="2"/>
-      <c r="S62" s="2"/>
-      <c r="T62" s="2"/>
-      <c r="U62" s="2"/>
+      <c r="E62">
+        <v>4.7502054945933903E-2</v>
+      </c>
+      <c r="F62">
+        <v>4.2369055704552898E-2</v>
+      </c>
+      <c r="G62">
+        <v>2.61832587377849E-2</v>
+      </c>
+      <c r="H62">
+        <v>4.6993594689444503E-3</v>
+      </c>
+      <c r="I62">
+        <v>1.1029109706183701E-2</v>
+      </c>
+      <c r="J62">
+        <v>2.96973855502378E-2</v>
+      </c>
+      <c r="K62">
+        <v>1.4933157541997401E-2</v>
+      </c>
+      <c r="L62">
+        <v>8.8402101200335901E-3</v>
+      </c>
+      <c r="M62">
+        <v>2.02246989095092E-2</v>
+      </c>
+      <c r="N62">
+        <v>5.58536053329899E-2</v>
+      </c>
+      <c r="O62">
+        <v>4.97887721223663E-2</v>
+      </c>
+      <c r="P62">
+        <v>2.1732201258717099E-2</v>
+      </c>
+      <c r="Q62">
+        <v>1.8615719883437101E-2</v>
+      </c>
+      <c r="R62">
+        <v>1.2837275151071E-2</v>
+      </c>
+      <c r="S62">
+        <v>3.9329387825835803E-2</v>
+      </c>
+      <c r="T62">
+        <v>4.1403824535059697E-2</v>
+      </c>
+      <c r="U62">
+        <v>6.7244073965703394E-2</v>
+      </c>
       <c r="V62" s="2">
-        <f t="shared" si="5"/>
-        <v>6.2999999999999987E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.57528315076035819</v>
       </c>
       <c r="W62" s="2">
-        <f t="shared" si="6"/>
-        <v>3.1499999999999992E-3</v>
+        <f t="shared" si="7"/>
+        <v>2.876415753801791E-2</v>
       </c>
     </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:22">
       <c r="B68" s="3"/>
     </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:22">
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
